--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B9F0C-7D6D-426E-B2AD-8EAA911F9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Albertus van der Walt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student Number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +350,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>37073710</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048C2899952E85ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93AAF95-CD61-4485-9E4A-EB12776CBB13}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4605" yWindow="2760" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Ian Stolz</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>37251244</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Desktop\CMPG\2022\CMPG223\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B9F0C-7D6D-426E-B2AD-8EAA911F9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E0C84-A837-48FF-89FE-972F612C3906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Student Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashton du Plessi </t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,6 +382,14 @@
         <v>37073710</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34202676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048C2899952E85ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93AAF95-CD61-4485-9E4A-EB12776CBB13}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A98E0C84-A837-48FF-89FE-972F612C3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC3F549-F7D9-4E67-A2FE-FA94F9035AA8}"/>
   <bookViews>
     <workbookView xWindow="4605" yWindow="2760" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Albertus van der Walt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashton du Plessi </t>
+  </si>
   <si>
     <t>Ian Stolz</t>
   </si>
@@ -345,19 +357,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B2">
+        <v>37073710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34202676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>37251244</v>
       </c>
     </row>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG223\PROJECT\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A98E0C84-A837-48FF-89FE-972F612C3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC3F549-F7D9-4E67-A2FE-FA94F9035AA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2760" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Ian Stolz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard Swanepoel </t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,14 @@
         <v>37251244</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>39909476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG223\PROJECT\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C5C19D-C62B-4032-B2D2-68917CB02024}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bernard Swanepoel </t>
+  </si>
+  <si>
+    <t>Hours Worked</t>
+  </si>
+  <si>
+    <t>Franco Burger</t>
   </si>
 </sst>
 </file>
@@ -78,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,56 +369,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>37073710</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>34202676</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>37251244</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>39909476</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24904635</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C5C19D-C62B-4032-B2D2-68917CB02024}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE166C6F-CBB2-409F-BEC4-1EE725FCA4DF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Franco Burger</t>
+  </si>
+  <si>
+    <t>Jakobus</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +430,7 @@
         <v>37251244</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +458,12 @@
         <v>24904635</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE166C6F-CBB2-409F-BEC4-1EE725FCA4DF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B458E8-A302-4180-921D-7D112875EDAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>37251244</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>24904635</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{10FB2DAA-9127-4365-A08E-0BC14FC41384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B458E8-A302-4180-921D-7D112875EDAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC647A2-3890-4C41-BD7D-62F94292F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Jakobus</t>
+  </si>
+  <si>
+    <t>2 on 09/01</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +406,9 @@
       <c r="B2" s="1">
         <v>37073710</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -416,7 +421,9 @@
       <c r="B4" s="1">
         <v>34202676</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -444,7 +451,9 @@
       <c r="B8" s="1">
         <v>39909476</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -464,6 +473,12 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>35560517</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC647A2-3890-4C41-BD7D-62F94292F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2EC647A2-3890-4C41-BD7D-62F94292F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6FFC28-1C32-4539-89DF-2CD594B2E55E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>2 on 09/01</t>
+  </si>
+  <si>
+    <t>2 on 08/24</t>
+  </si>
+  <si>
+    <t>1 on 09/02</t>
+  </si>
+  <si>
+    <t>1 on 08/29</t>
+  </si>
+  <si>
+    <t>1 on 08/30</t>
+  </si>
+  <si>
+    <t>1.5 on 08/31</t>
   </si>
 </sst>
 </file>
@@ -375,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +401,11 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -399,7 +416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -407,14 +424,17 @@
         <v>37073710</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -425,26 +445,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>37251244</v>
       </c>
-      <c r="C6" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -455,22 +484,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>24904635</v>
       </c>
-      <c r="C10" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2EC647A2-3890-4C41-BD7D-62F94292F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD6FFC28-1C32-4539-89DF-2CD594B2E55E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228850A7-B7BB-4F0D-93BD-88F693AB95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Franco Burger</t>
   </si>
   <si>
-    <t>Jakobus</t>
-  </si>
-  <si>
     <t>2 on 09/01</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>1.5 on 08/31</t>
+  </si>
+  <si>
+    <t>2.5 on 09/03</t>
+  </si>
+  <si>
+    <t>Jacobus</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +414,7 @@
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -416,105 +425,218 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>37073710</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>34202676</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>37251244</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>39909476</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>24904635</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>35560517</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228850A7-B7BB-4F0D-93BD-88F693AB95B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D94C966-F219-46DF-9B63-08E107D3542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Jacobus</t>
+  </si>
+  <si>
+    <t>1.5 on 09/04</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +444,9 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D94C966-F219-46DF-9B63-08E107D3542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C452F-70D4-4115-92A0-AD28CDA7DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bernard Swanepoel </t>
-  </si>
-  <si>
-    <t>Hours Worked</t>
   </si>
   <si>
     <t>Franco Burger</t>
@@ -405,7 +402,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,9 +421,6 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -436,16 +430,16 @@
         <v>37073710</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -477,10 +471,10 @@
         <v>34202676</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -514,16 +508,16 @@
         <v>37251244</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -555,10 +549,10 @@
         <v>39909476</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -586,19 +580,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>24904635</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -624,13 +618,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>35560517</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C452F-70D4-4115-92A0-AD28CDA7DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D902801-C7D4-423A-9C02-DC54F7107E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>1.5 on 09/04</t>
+  </si>
+  <si>
+    <t>1.5 on 09/05</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I8" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +415,7 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -441,7 +445,9 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -476,7 +482,9 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -554,7 +562,9 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -626,7 +636,9 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D902801-C7D4-423A-9C02-DC54F7107E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{1D902801-C7D4-423A-9C02-DC54F7107E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9635234C-4DC8-4125-8D29-8BBB608AFD0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>1.5 on 09/05</t>
+  </si>
+  <si>
+    <t>2.5 on 09/07</t>
+  </si>
+  <si>
+    <t>2 on 09/07</t>
+  </si>
+  <si>
+    <t>1 on 09/07</t>
   </si>
 </sst>
 </file>
@@ -402,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I7:I8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +424,8 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -425,6 +435,7 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -448,24 +459,26 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
@@ -485,26 +498,26 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
@@ -527,25 +540,27 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
@@ -565,26 +580,28 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
@@ -604,25 +621,28 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
@@ -639,15 +659,63 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{1D902801-C7D4-423A-9C02-DC54F7107E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9635234C-4DC8-4125-8D29-8BBB608AFD0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3526FF-8470-47F3-A52D-633389A61A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>1 on 09/07</t>
+  </si>
+  <si>
+    <t>2 on 09/08</t>
+  </si>
+  <si>
+    <t>1 on 09/08</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +432,7 @@
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -462,7 +469,9 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
@@ -543,7 +552,9 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -585,7 +596,6 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
@@ -599,7 +609,6 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -626,7 +635,6 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -640,7 +648,6 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
@@ -663,7 +670,6 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
@@ -677,7 +683,6 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
@@ -687,9 +692,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -699,7 +703,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -711,12 +715,24 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3526FF-8470-47F3-A52D-633389A61A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8AA7A-6C83-4DE5-9E3B-D048AC89EF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>1 on 09/08</t>
+  </si>
+  <si>
+    <t>1 on 09/09</t>
+  </si>
+  <si>
+    <t>1 on 09/10</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +439,7 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -472,8 +479,12 @@
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
@@ -507,7 +518,9 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -555,7 +568,9 @@
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
@@ -594,7 +609,9 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -633,7 +650,9 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -666,7 +685,9 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8AA7A-6C83-4DE5-9E3B-D048AC89EF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1 on 09/10</t>
+  </si>
+  <si>
+    <t>2.5 on 09/11</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,8 +441,8 @@
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -485,7 +488,9 @@
       <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89AD52EB-7C22-4DB6-931B-1B0BA725CF62}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Student Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashton du Plessi </t>
-  </si>
-  <si>
     <t>Ian Stolz</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>2.5 on 09/03</t>
   </si>
   <si>
-    <t>Jacobus</t>
-  </si>
-  <si>
     <t>1.5 on 09/04</t>
   </si>
   <si>
@@ -100,6 +94,15 @@
   </si>
   <si>
     <t>2.5 on 09/11</t>
+  </si>
+  <si>
+    <t>Ashton du Plessis</t>
+  </si>
+  <si>
+    <t>Jacobus Koorts</t>
+  </si>
+  <si>
+    <t>1 on 09/11 (doc)</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,8 +444,10 @@
     <col min="5" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -462,34 +467,34 @@
         <v>37073710</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -509,24 +514,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>34202676</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -550,31 +557,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>37251244</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -597,27 +604,29 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>39909476</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
@@ -638,25 +647,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>24904635</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
@@ -679,19 +688,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>35560517</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89AD52EB-7C22-4DB6-931B-1B0BA725CF62}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D012377-BD9B-4ECA-9BF2-E2E73959D15B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>1 on 09/11 (doc)</t>
+  </si>
+  <si>
+    <t>2 on 09/11</t>
+  </si>
+  <si>
+    <t>2 on 09/11 (doc)</t>
   </si>
 </sst>
 </file>
@@ -432,22 +438,23 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -625,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -702,7 +709,9 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documents\GitHub\CMPG-223-group-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{172ABCB2-262A-4D69-8924-E660A3F177C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D012377-BD9B-4ECA-9BF2-E2E73959D15B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>2 on 09/11 (doc)</t>
+  </si>
+  <si>
+    <t>0.25 on 09/11</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,9 @@
       <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Documents\GitHub\CMPG-223-group-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D0D51A-D83A-484A-B07A-7B37CD98D36D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>2 on 09/11 (doc)</t>
   </si>
   <si>
-    <t>0.25 on 09/11</t>
+    <t>0.5 on 09/11</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D0D51A-D83A-484A-B07A-7B37CD98D36D}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01049F00-9BE7-4EB8-88EA-FBAAA743AA69}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Albertus van der Walt</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Student Number</t>
   </si>
   <si>
@@ -102,25 +99,57 @@
     <t>Jacobus Koorts</t>
   </si>
   <si>
-    <t>1 on 09/11 (doc)</t>
-  </si>
-  <si>
     <t>2 on 09/11</t>
   </si>
   <si>
-    <t>2 on 09/11 (doc)</t>
-  </si>
-  <si>
-    <t>0.5 on 09/11</t>
+    <t>2 on 09/09</t>
+  </si>
+  <si>
+    <t>Hours worked per day</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>1 on 09/12</t>
+  </si>
+  <si>
+    <t>2 on 09/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 on 09/11 </t>
+  </si>
+  <si>
+    <t>7 on 09/13</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>3 on 09/13</t>
+  </si>
+  <si>
+    <t>6 on 09/13</t>
+  </si>
+  <si>
+    <t>1 on 09/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,11 +172,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +247,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
@@ -460,52 +565,24 @@
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>37073710</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -523,26 +600,26 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>34202676</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -552,12 +629,27 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>37073710</v>
+      </c>
+      <c r="C5" s="8">
+        <v>34202676</v>
+      </c>
+      <c r="D5" s="8">
+        <v>37251244</v>
+      </c>
+      <c r="E5" s="8">
+        <v>39909476</v>
+      </c>
+      <c r="F5" s="8">
+        <v>24904635</v>
+      </c>
+      <c r="G5" s="8">
+        <v>35560517</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -566,45 +658,40 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>37251244</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -613,42 +700,51 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>39909476</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -656,42 +752,51 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>24904635</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -699,25 +804,25 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1">
-        <v>35560517</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -725,64 +830,145 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10">
+        <v>17</v>
+      </c>
+      <c r="D20" s="10">
+        <v>18</v>
+      </c>
+      <c r="E20" s="10">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10">
+        <v>17</v>
+      </c>
+      <c r="G20" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkSheet.xlsx
+++ b/WorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97984c6fe860f936/Documents/GitHub/CMPG-223-group-8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01049F00-9BE7-4EB8-88EA-FBAAA743AA69}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{D864ADC4-3443-4317-9E37-F014B7F888B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9D21DC3-7587-4A93-A1A9-A8FF949A1433}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Albertus van der Walt</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>1 on 09/12</t>
-  </si>
-  <si>
     <t>2 on 09/12</t>
   </si>
   <si>
@@ -126,13 +123,22 @@
     <t>Total Hours</t>
   </si>
   <si>
-    <t>3 on 09/13</t>
-  </si>
-  <si>
     <t>6 on 09/13</t>
   </si>
   <si>
     <t>1 on 09/11</t>
+  </si>
+  <si>
+    <t>5 on 09/12</t>
+  </si>
+  <si>
+    <t>3 on 09/12</t>
+  </si>
+  <si>
+    <t>5 on 09/13</t>
+  </si>
+  <si>
+    <t>4 on 09/13</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -795,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
@@ -818,10 +824,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
@@ -835,16 +841,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -858,13 +864,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -878,7 +884,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -913,7 +919,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -923,25 +929,25 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="10">
         <v>18</v>
       </c>
       <c r="F20" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="11">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
